--- a/data/YIELD_PL.xlsx
+++ b/data/YIELD_PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44286075-D54D-2747-8E24-CD78F00DF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EC3CD-9932-FC44-84C2-E9FEC24A3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="3500" windowWidth="27240" windowHeight="14960" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
+    <workbookView xWindow="4620" yWindow="5160" windowWidth="27240" windowHeight="14960" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SOLAR - Annual prod MWh, MW</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>installed power</t>
   </si>
 </sst>
 </file>
@@ -114,10 +117,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D34A8-24E4-3341-8497-6EDB0F5D2285}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,9 +467,10 @@
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,89 +480,146 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>3367.6697630155131</v>
       </c>
       <c r="C2" s="3">
         <v>446.20530973451326</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>540</v>
+      </c>
+      <c r="I2" s="7">
+        <v>15214014.5</v>
+      </c>
+      <c r="J2" s="7">
+        <f>I2/B2</f>
+        <v>4517.6681713520838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3207.9788339212305</v>
       </c>
       <c r="C3" s="3">
         <v>601.64302477183833</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>671</v>
+      </c>
+      <c r="I3" s="7">
+        <v>15246356</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J6" si="0">I3/B3</f>
+        <v>4752.6360955953751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>3441.6364047032966</v>
       </c>
       <c r="C4" s="3">
         <v>749.2263709677419</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2022</v>
+      </c>
+      <c r="G4">
+        <v>710</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18775815.5</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>5455.4907294510276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3434.3911115918258</v>
       </c>
       <c r="C5" s="3">
         <v>755.63702857142857</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22116656</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>6439.7604353655061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>3400</v>
       </c>
       <c r="C6" s="3">
         <v>819.83133241953021</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1300</v>
+      </c>
+      <c r="I6" s="7">
+        <v>23920281.125</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>7035.3768014705884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/data/YIELD_PL.xlsx
+++ b/data/YIELD_PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EC3CD-9932-FC44-84C2-E9FEC24A3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3118CF-C4BA-6D4F-8FFF-525845A5F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="5160" windowWidth="27240" windowHeight="14960" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
+    <workbookView xWindow="4600" yWindow="11220" windowWidth="27240" windowHeight="14960" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>3367.6697630155131</v>
       </c>
       <c r="C2" s="3">
-        <v>446.20530973451326</v>
+        <v>531</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -516,7 +516,7 @@
         <v>3207.9788339212305</v>
       </c>
       <c r="C3" s="3">
-        <v>601.64302477183833</v>
+        <v>782</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -540,7 +540,7 @@
         <v>3441.6364047032966</v>
       </c>
       <c r="C4" s="3">
-        <v>749.2263709677419</v>
+        <v>975</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -564,7 +564,7 @@
         <v>3434.3911115918258</v>
       </c>
       <c r="C5" s="3">
-        <v>755.63702857142857</v>
+        <v>881</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -588,7 +588,7 @@
         <v>3400</v>
       </c>
       <c r="C6" s="3">
-        <v>819.83133241953021</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>2024</v>
